--- a/medicine/Enfance/Henri_Suquet/Henri_Suquet.xlsx
+++ b/medicine/Enfance/Henri_Suquet/Henri_Suquet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Émile Gabriel Suquet, né à Langres le 20 octobre 1902 et mort le 22 janvier 1980[1] à Neuilly-sur-Seine, est un ingénieur des travaux publics et un écrivain français de littérature d'enfance et de jeunesse. Il est l'auteur d'une vingtaine de romans qui se rattachent pour certains au roman policier ou à la science-fiction. Il a également écrit des nouvelles publiées dans des revues comme Lisette[2], Pierrot[3], ou Cœurs vaillants[4]. Parmi ses passions figurent le scoutisme et le radioamateurisme.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Émile Gabriel Suquet, né à Langres le 20 octobre 1902 et mort le 22 janvier 1980 à Neuilly-sur-Seine, est un ingénieur des travaux publics et un écrivain français de littérature d'enfance et de jeunesse. Il est l'auteur d'une vingtaine de romans qui se rattachent pour certains au roman policier ou à la science-fiction. Il a également écrit des nouvelles publiées dans des revues comme Lisette, Pierrot, ou Cœurs vaillants. Parmi ses passions figurent le scoutisme et le radioamateurisme.
 Il est le fils de Louis Suquet, ingénieur lui aussi, qui a participé à la construction des premières lignes du métro parisien. C'est parce qu'il aimait raconter des histoires, qu'il demanda à un écrivain professionnel, Charles-André Dumas, de lui enseigner quelques techniques de rédaction et qu'il devint écrivain. 
 </t>
         </is>
@@ -512,11 +524,48 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(liste non exhaustive)
-Romans
-On va faire sauter Paris, suivi de On a perdu un métro, ill. de Jobbé-Duval, Paris, Boivin, 1935
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Henri_Suquet</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henri_Suquet</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On va faire sauter Paris, suivi de On a perdu un métro, ill. de Jobbé-Duval, Paris, Boivin, 1935
 La Maison sous les eaux, Paris, Éd. des Loisirs, 1939
 Le Mystère du Tour de France, Paris, Éd. des Loisirs, coll. « Loisirs aventure », 1939
 Panique sur le monde, la guerre des forces, ill. de Sven, Toulouse, Éd. du Clocher, coll. « Pour la jeunesse » no 20, 1939
@@ -542,7 +591,7 @@
 La Maison sous les eaux, ill. de Manon Iessel, Paris, Éd. Fleurus, coll. « Monique », 1954
 Le Secret du diamant, ill. de Pierre Joubert, Paris, Éd. Fleurus, coll. « Monique », 1954
 On a volé le diadème, Verviers, Marabout, coll. « Marabout junior » no 44, 1955
-Plusieurs de ces romans sont des nouvelles versions  d'une œuvre antérieure[5] sous un titre différent.
+Plusieurs de ces romans sont des nouvelles versions  d'une œuvre antérieure sous un titre différent.
 </t>
         </is>
       </c>
